--- a/相关文档及图片/信号表.xlsx
+++ b/相关文档及图片/信号表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t>alua</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +205,58 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jumpType[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jumpType[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>willjump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jumpType[1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +297,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -507,11 +559,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -589,45 +654,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -645,18 +671,65 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -961,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -972,7 +1045,7 @@
     <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="16.625" customWidth="1"/>
     <col min="6" max="6" width="16.125" customWidth="1"/>
     <col min="12" max="12" width="10.25" customWidth="1"/>
@@ -989,35 +1062,35 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48"/>
-      <c r="B2" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="31" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="28" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1046,7 +1119,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="40">
+      <c r="A5" s="27">
         <v>0</v>
       </c>
       <c r="B5" s="2">
@@ -1078,7 +1151,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40">
+      <c r="A6" s="27">
         <v>0</v>
       </c>
       <c r="B6" s="2">
@@ -1107,7 +1180,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="40">
+      <c r="A7" s="27">
         <v>0</v>
       </c>
       <c r="B7" s="2">
@@ -1142,7 +1215,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="40">
+      <c r="A8" s="27">
         <v>0</v>
       </c>
       <c r="B8" s="2">
@@ -1177,7 +1250,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="40">
+      <c r="A9" s="27">
         <v>0</v>
       </c>
       <c r="B9" s="2">
@@ -1212,7 +1285,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40">
+      <c r="A10" s="27">
         <v>0</v>
       </c>
       <c r="B10" s="2">
@@ -1247,7 +1320,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="40">
+      <c r="A11" s="27">
         <v>0</v>
       </c>
       <c r="B11" s="2">
@@ -1276,7 +1349,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="40">
+      <c r="A12" s="27">
         <v>0</v>
       </c>
       <c r="B12" s="2">
@@ -1305,7 +1378,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="40">
+      <c r="A13" s="27">
         <v>0</v>
       </c>
       <c r="B13" s="2">
@@ -1334,7 +1407,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="40">
+      <c r="A14" s="27">
         <v>0</v>
       </c>
       <c r="B14" s="2">
@@ -1363,28 +1436,28 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52">
-        <v>1</v>
-      </c>
-      <c r="B15" s="44">
+      <c r="A15" s="37">
+        <v>1</v>
+      </c>
+      <c r="B15" s="31">
         <v>1</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="31">
         <v>1</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="46">
-        <v>1</v>
-      </c>
-      <c r="G15" s="47">
-        <v>1</v>
-      </c>
-      <c r="H15" s="44">
+      <c r="F15" s="33">
+        <v>1</v>
+      </c>
+      <c r="G15" s="34">
+        <v>1</v>
+      </c>
+      <c r="H15" s="31">
         <v>1</v>
       </c>
       <c r="I15" s="24" t="s">
@@ -1398,35 +1471,37 @@
     </row>
     <row r="17" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
-      <c r="B18" s="49" t="s">
+      <c r="A18" s="35"/>
+      <c r="B18" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="42"/>
-      <c r="B19" s="29" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="34" t="s">
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="50"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="49"/>
     </row>
     <row r="20" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
+      <c r="A20" s="28" t="s">
+        <v>45</v>
+      </c>
       <c r="B20" s="16" t="s">
         <v>25</v>
       </c>
@@ -1448,12 +1523,12 @@
       <c r="H20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="51" t="s">
+      <c r="I20" s="36" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="40">
+      <c r="A21" s="27">
         <v>0</v>
       </c>
       <c r="B21" s="16">
@@ -1491,7 +1566,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="40">
+      <c r="A22" s="27">
         <v>0</v>
       </c>
       <c r="B22" s="16">
@@ -1526,7 +1601,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="40">
+      <c r="A23" s="27">
         <v>0</v>
       </c>
       <c r="B23" s="16">
@@ -1561,7 +1636,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="40">
+      <c r="A24" s="27">
         <v>0</v>
       </c>
       <c r="B24" s="16">
@@ -1596,7 +1671,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="40">
+      <c r="A25" s="27">
         <v>0</v>
       </c>
       <c r="B25" s="16">
@@ -1625,7 +1700,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="40">
+      <c r="A26" s="27">
         <v>0</v>
       </c>
       <c r="B26" s="16">
@@ -1654,7 +1729,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="40">
+      <c r="A27" s="27">
         <v>0</v>
       </c>
       <c r="B27" s="16">
@@ -1683,7 +1758,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="40">
+      <c r="A28" s="27">
         <v>0</v>
       </c>
       <c r="B28" s="16">
@@ -1712,7 +1787,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="40">
+      <c r="A29" s="27">
         <v>0</v>
       </c>
       <c r="B29" s="16">
@@ -1741,7 +1816,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="40">
+      <c r="A30" s="27">
         <v>0</v>
       </c>
       <c r="B30" s="16">
@@ -1770,28 +1845,28 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="43">
-        <v>1</v>
-      </c>
-      <c r="B31" s="44">
-        <v>1</v>
-      </c>
-      <c r="C31" s="45" t="s">
+      <c r="A31" s="30">
+        <v>1</v>
+      </c>
+      <c r="B31" s="31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="44">
-        <v>1</v>
-      </c>
-      <c r="E31" s="45" t="s">
+      <c r="D31" s="31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="46">
-        <v>1</v>
-      </c>
-      <c r="G31" s="47">
-        <v>1</v>
-      </c>
-      <c r="H31" s="44">
+      <c r="F31" s="33">
+        <v>1</v>
+      </c>
+      <c r="G31" s="34">
+        <v>1</v>
+      </c>
+      <c r="H31" s="31">
         <v>1</v>
       </c>
       <c r="I31" s="24" t="s">
@@ -1801,6 +1876,227 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="27">
+        <v>0</v>
+      </c>
+      <c r="B35" s="53">
+        <v>0</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="53">
+        <v>0</v>
+      </c>
+      <c r="E35" s="54"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="27">
+        <v>0</v>
+      </c>
+      <c r="B36" s="53">
+        <v>1</v>
+      </c>
+      <c r="C36" s="53">
+        <v>1</v>
+      </c>
+      <c r="D36" s="53">
+        <v>0</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="27">
+        <v>0</v>
+      </c>
+      <c r="B37" s="53">
+        <v>1</v>
+      </c>
+      <c r="C37" s="53">
+        <v>0</v>
+      </c>
+      <c r="D37" s="53">
+        <v>1</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="27">
+        <v>1</v>
+      </c>
+      <c r="B38" s="53">
+        <v>0</v>
+      </c>
+      <c r="C38" s="53">
+        <v>1</v>
+      </c>
+      <c r="D38" s="53">
+        <v>1</v>
+      </c>
+      <c r="E38" s="54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="27">
+        <v>1</v>
+      </c>
+      <c r="B39" s="53">
+        <v>0</v>
+      </c>
+      <c r="C39" s="53">
+        <v>0</v>
+      </c>
+      <c r="D39" s="53">
+        <v>0</v>
+      </c>
+      <c r="E39" s="54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="27">
+        <v>1</v>
+      </c>
+      <c r="B40" s="53">
+        <v>1</v>
+      </c>
+      <c r="C40" s="53">
+        <v>1</v>
+      </c>
+      <c r="D40" s="53">
+        <v>1</v>
+      </c>
+      <c r="E40" s="54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="30">
+        <v>1</v>
+      </c>
+      <c r="B41" s="32">
+        <v>1</v>
+      </c>
+      <c r="C41" s="32">
+        <v>0</v>
+      </c>
+      <c r="D41" s="32">
+        <v>1</v>
+      </c>
+      <c r="E41" s="55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="27">
+        <v>1</v>
+      </c>
+      <c r="B44" s="53">
+        <v>0</v>
+      </c>
+      <c r="C44" s="53">
+        <v>0</v>
+      </c>
+      <c r="D44" s="59">
+        <v>1</v>
+      </c>
+      <c r="E44" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="27">
+        <v>0</v>
+      </c>
+      <c r="B45" s="53">
+        <v>1</v>
+      </c>
+      <c r="C45" s="53">
+        <v>0</v>
+      </c>
+      <c r="D45" s="59">
+        <v>0</v>
+      </c>
+      <c r="E45" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="27">
+        <v>0</v>
+      </c>
+      <c r="B46" s="53">
+        <v>0</v>
+      </c>
+      <c r="C46" s="53">
+        <v>1</v>
+      </c>
+      <c r="D46" s="59">
+        <v>1</v>
+      </c>
+      <c r="E46" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="30">
+        <v>0</v>
+      </c>
+      <c r="B47" s="32">
+        <v>0</v>
+      </c>
+      <c r="C47" s="32">
+        <v>0</v>
+      </c>
+      <c r="D47" s="60">
+        <v>0</v>
+      </c>
+      <c r="E47" s="55">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/相关文档及图片/信号表.xlsx
+++ b/相关文档及图片/信号表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
   <si>
     <t>alua</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +257,54 @@
   </si>
   <si>
     <t>jumpType[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX_store_hazard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_store_hazard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_store_hazard[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_store_hazard[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMaluResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WBaluResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imme</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +345,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -572,11 +620,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -676,51 +776,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -730,6 +785,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1034,18 +1146,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="5" max="5" width="16.625" customWidth="1"/>
     <col min="6" max="6" width="16.125" customWidth="1"/>
     <col min="12" max="12" width="10.25" customWidth="1"/>
@@ -1063,31 +1175,31 @@
     </row>
     <row r="2" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
-      <c r="B2" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
+      <c r="B2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="27"/>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
@@ -1435,134 +1547,125 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37">
-        <v>1</v>
-      </c>
-      <c r="B15" s="31">
-        <v>1</v>
-      </c>
-      <c r="C15" s="11" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="27">
+        <v>1</v>
+      </c>
+      <c r="B15" s="47">
+        <v>0</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="47">
+        <v>1</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="37">
+        <v>1</v>
+      </c>
+      <c r="B16" s="31">
+        <v>1</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="31">
-        <v>1</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="D16" s="31">
+        <v>1</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="33">
-        <v>1</v>
-      </c>
-      <c r="G15" s="34">
-        <v>1</v>
-      </c>
-      <c r="H15" s="31">
-        <v>1</v>
-      </c>
-      <c r="I15" s="24" t="s">
+      <c r="F16" s="33">
+        <v>1</v>
+      </c>
+      <c r="G16" s="34">
+        <v>1</v>
+      </c>
+      <c r="H16" s="31">
+        <v>1</v>
+      </c>
+      <c r="I16" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
-      <c r="B18" s="50" t="s">
+    <row r="18" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="35"/>
+      <c r="B19" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="52"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="29"/>
-      <c r="B19" s="46" t="s">
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="62"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="29"/>
+      <c r="B20" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48" t="s">
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="49"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
+      <c r="H20" s="56"/>
+      <c r="I20" s="59"/>
+    </row>
+    <row r="21" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E21" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F21" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G21" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="36" t="s">
+      <c r="I21" s="36" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="27">
-        <v>0</v>
-      </c>
-      <c r="B21" s="16">
-        <v>0</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="15">
-        <v>0</v>
-      </c>
-      <c r="H21" s="16">
-        <v>1</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="18">
-        <v>0</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
@@ -1570,34 +1673,37 @@
         <v>0</v>
       </c>
       <c r="B22" s="16">
-        <v>1</v>
-      </c>
-      <c r="C22" s="16">
-        <v>0</v>
-      </c>
-      <c r="D22" s="16">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G22" s="15">
         <v>0</v>
       </c>
       <c r="H22" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="20">
-        <v>1</v>
-      </c>
-      <c r="L22" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="18">
+        <v>0</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
@@ -1611,13 +1717,13 @@
         <v>0</v>
       </c>
       <c r="D23" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="17">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>1</v>
       </c>
       <c r="G23" s="15">
         <v>0</v>
@@ -1628,75 +1734,81 @@
       <c r="I23" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="20">
+        <v>1</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="27">
+        <v>0</v>
+      </c>
+      <c r="B24" s="16">
+        <v>1</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0</v>
+      </c>
+      <c r="D24" s="16">
+        <v>1</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="17">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="22">
         <v>2</v>
       </c>
-      <c r="L23" s="21" t="s">
+      <c r="L24" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27">
-        <v>0</v>
-      </c>
-      <c r="B24" s="16">
-        <v>1</v>
-      </c>
-      <c r="C24" s="16">
-        <v>0</v>
-      </c>
-      <c r="D24" s="16">
-        <v>1</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="17">
-        <v>1</v>
-      </c>
-      <c r="G24" s="15">
-        <v>1</v>
-      </c>
-      <c r="H24" s="16">
-        <v>1</v>
-      </c>
-      <c r="I24" s="21" t="s">
+    <row r="25" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27">
+        <v>0</v>
+      </c>
+      <c r="B25" s="16">
+        <v>1</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0</v>
+      </c>
+      <c r="D25" s="16">
+        <v>1</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="17">
+        <v>1</v>
+      </c>
+      <c r="G25" s="15">
+        <v>1</v>
+      </c>
+      <c r="H25" s="16">
+        <v>1</v>
+      </c>
+      <c r="I25" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K25" s="23">
         <v>3</v>
       </c>
-      <c r="L24" s="24" t="s">
+      <c r="L25" s="24" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="27">
-        <v>0</v>
-      </c>
-      <c r="B25" s="16">
-        <v>1</v>
-      </c>
-      <c r="C25" s="16">
-        <v>1</v>
-      </c>
-      <c r="D25" s="16">
-        <v>0</v>
-      </c>
-      <c r="E25" s="16">
-        <v>0</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="15">
-        <v>0</v>
-      </c>
-      <c r="H25" s="16">
-        <v>0</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
@@ -1713,19 +1825,19 @@
         <v>0</v>
       </c>
       <c r="E26" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G26" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="16">
         <v>0</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
@@ -1739,22 +1851,22 @@
         <v>1</v>
       </c>
       <c r="D27" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="16">
-        <v>0</v>
-      </c>
-      <c r="F27" s="17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="G27" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="16">
         <v>0</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
@@ -1774,16 +1886,16 @@
         <v>0</v>
       </c>
       <c r="F28" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
@@ -1800,19 +1912,19 @@
         <v>1</v>
       </c>
       <c r="E29" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="17">
-        <v>0</v>
-      </c>
-      <c r="G29" s="16">
+        <v>1</v>
+      </c>
+      <c r="G29" s="15">
         <v>1</v>
       </c>
       <c r="H29" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
@@ -1831,272 +1943,416 @@
       <c r="E30" s="16">
         <v>1</v>
       </c>
-      <c r="F30" s="16">
-        <v>1</v>
-      </c>
-      <c r="G30" s="15">
+      <c r="F30" s="17">
+        <v>0</v>
+      </c>
+      <c r="G30" s="16">
         <v>1</v>
       </c>
       <c r="H30" s="16">
         <v>0</v>
       </c>
       <c r="I30" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="27">
+        <v>0</v>
+      </c>
+      <c r="B31" s="16">
+        <v>1</v>
+      </c>
+      <c r="C31" s="16">
+        <v>1</v>
+      </c>
+      <c r="D31" s="16">
+        <v>1</v>
+      </c>
+      <c r="E31" s="16">
+        <v>1</v>
+      </c>
+      <c r="F31" s="16">
+        <v>1</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0</v>
+      </c>
+      <c r="I31" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30">
-        <v>1</v>
-      </c>
-      <c r="B31" s="31">
-        <v>1</v>
-      </c>
-      <c r="C31" s="32" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="27">
+        <v>1</v>
+      </c>
+      <c r="B32" s="46">
+        <v>0</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="15">
+        <v>0</v>
+      </c>
+      <c r="H32" s="46">
+        <v>1</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="30">
+        <v>1</v>
+      </c>
+      <c r="B33" s="31">
+        <v>1</v>
+      </c>
+      <c r="C33" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="32" t="s">
+      <c r="D33" s="31">
+        <v>1</v>
+      </c>
+      <c r="E33" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="33">
-        <v>1</v>
-      </c>
-      <c r="G31" s="34">
-        <v>1</v>
-      </c>
-      <c r="H31" s="31">
-        <v>1</v>
-      </c>
-      <c r="I31" s="24" t="s">
+      <c r="F33" s="33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="34">
+        <v>1</v>
+      </c>
+      <c r="H33" s="31">
+        <v>1</v>
+      </c>
+      <c r="I33" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="35" t="s">
+    <row r="35" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B36" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="56" t="s">
+      <c r="C36" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="56" t="s">
+      <c r="D36" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="57" t="s">
+      <c r="E36" s="42" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="27">
-        <v>0</v>
-      </c>
-      <c r="B35" s="53">
-        <v>0</v>
-      </c>
-      <c r="C35" s="53" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="27">
+        <v>0</v>
+      </c>
+      <c r="B37" s="38">
+        <v>0</v>
+      </c>
+      <c r="C37" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="53">
-        <v>0</v>
-      </c>
-      <c r="E35" s="54"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="27">
-        <v>0</v>
-      </c>
-      <c r="B36" s="53">
-        <v>1</v>
-      </c>
-      <c r="C36" s="53">
-        <v>1</v>
-      </c>
-      <c r="D36" s="53">
-        <v>0</v>
-      </c>
-      <c r="E36" s="54" t="s">
+      <c r="D37" s="44">
+        <v>0</v>
+      </c>
+      <c r="E37" s="39"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="27">
+        <v>0</v>
+      </c>
+      <c r="B38" s="38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="44">
+        <v>0</v>
+      </c>
+      <c r="E38" s="39" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="27">
-        <v>0</v>
-      </c>
-      <c r="B37" s="53">
-        <v>1</v>
-      </c>
-      <c r="C37" s="53">
-        <v>0</v>
-      </c>
-      <c r="D37" s="53">
-        <v>1</v>
-      </c>
-      <c r="E37" s="54" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="27">
+        <v>0</v>
+      </c>
+      <c r="B39" s="38">
+        <v>1</v>
+      </c>
+      <c r="C39" s="38">
+        <v>0</v>
+      </c>
+      <c r="D39" s="44">
+        <v>1</v>
+      </c>
+      <c r="E39" s="39" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="27">
-        <v>1</v>
-      </c>
-      <c r="B38" s="53">
-        <v>0</v>
-      </c>
-      <c r="C38" s="53">
-        <v>1</v>
-      </c>
-      <c r="D38" s="53">
-        <v>1</v>
-      </c>
-      <c r="E38" s="54" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="27">
+        <v>1</v>
+      </c>
+      <c r="B40" s="38">
+        <v>0</v>
+      </c>
+      <c r="C40" s="38">
+        <v>1</v>
+      </c>
+      <c r="D40" s="44">
+        <v>1</v>
+      </c>
+      <c r="E40" s="39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="27">
-        <v>1</v>
-      </c>
-      <c r="B39" s="53">
-        <v>0</v>
-      </c>
-      <c r="C39" s="53">
-        <v>0</v>
-      </c>
-      <c r="D39" s="53">
-        <v>0</v>
-      </c>
-      <c r="E39" s="54" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="27">
+        <v>1</v>
+      </c>
+      <c r="B41" s="38">
+        <v>0</v>
+      </c>
+      <c r="C41" s="38">
+        <v>0</v>
+      </c>
+      <c r="D41" s="44">
+        <v>0</v>
+      </c>
+      <c r="E41" s="39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="27">
-        <v>1</v>
-      </c>
-      <c r="B40" s="53">
-        <v>1</v>
-      </c>
-      <c r="C40" s="53">
-        <v>1</v>
-      </c>
-      <c r="D40" s="53">
-        <v>1</v>
-      </c>
-      <c r="E40" s="54" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="27">
+        <v>1</v>
+      </c>
+      <c r="B42" s="38">
+        <v>1</v>
+      </c>
+      <c r="C42" s="38">
+        <v>1</v>
+      </c>
+      <c r="D42" s="44">
+        <v>1</v>
+      </c>
+      <c r="E42" s="39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30">
-        <v>1</v>
-      </c>
-      <c r="B41" s="32">
-        <v>1</v>
-      </c>
-      <c r="C41" s="32">
-        <v>0</v>
-      </c>
-      <c r="D41" s="32">
-        <v>1</v>
-      </c>
-      <c r="E41" s="55" t="s">
+    <row r="43" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="30">
+        <v>1</v>
+      </c>
+      <c r="B43" s="32">
+        <v>1</v>
+      </c>
+      <c r="C43" s="32">
+        <v>0</v>
+      </c>
+      <c r="D43" s="45">
+        <v>1</v>
+      </c>
+      <c r="E43" s="40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="35" t="s">
+    <row r="44" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="56" t="s">
+      <c r="B45" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C45" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="58" t="s">
+      <c r="D45" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="57" t="s">
+      <c r="E45" s="42" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="27">
-        <v>1</v>
-      </c>
-      <c r="B44" s="53">
-        <v>0</v>
-      </c>
-      <c r="C44" s="53">
-        <v>0</v>
-      </c>
-      <c r="D44" s="59">
-        <v>1</v>
-      </c>
-      <c r="E44" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="27">
-        <v>0</v>
-      </c>
-      <c r="B45" s="53">
-        <v>1</v>
-      </c>
-      <c r="C45" s="53">
-        <v>0</v>
-      </c>
-      <c r="D45" s="59">
-        <v>0</v>
-      </c>
-      <c r="E45" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="27">
-        <v>0</v>
-      </c>
-      <c r="B46" s="53">
-        <v>0</v>
-      </c>
-      <c r="C46" s="53">
-        <v>1</v>
-      </c>
-      <c r="D46" s="59">
-        <v>1</v>
-      </c>
-      <c r="E46" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="30">
-        <v>0</v>
-      </c>
-      <c r="B47" s="32">
-        <v>0</v>
-      </c>
-      <c r="C47" s="32">
-        <v>0</v>
-      </c>
-      <c r="D47" s="60">
-        <v>0</v>
-      </c>
-      <c r="E47" s="55">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B46" s="38">
+        <v>0</v>
+      </c>
+      <c r="C46" s="38">
+        <v>0</v>
+      </c>
+      <c r="D46" s="44">
+        <v>1</v>
+      </c>
+      <c r="E46" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="27">
+        <v>0</v>
+      </c>
+      <c r="B47" s="38">
+        <v>1</v>
+      </c>
+      <c r="C47" s="38">
+        <v>0</v>
+      </c>
+      <c r="D47" s="44">
+        <v>0</v>
+      </c>
+      <c r="E47" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="27">
+        <v>0</v>
+      </c>
+      <c r="B48" s="38">
+        <v>0</v>
+      </c>
+      <c r="C48" s="38">
+        <v>1</v>
+      </c>
+      <c r="D48" s="44">
+        <v>1</v>
+      </c>
+      <c r="E48" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="30">
+        <v>0</v>
+      </c>
+      <c r="B49" s="32">
+        <v>0</v>
+      </c>
+      <c r="C49" s="32">
+        <v>0</v>
+      </c>
+      <c r="D49" s="45">
+        <v>0</v>
+      </c>
+      <c r="E49" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="27">
+        <v>0</v>
+      </c>
+      <c r="B52" s="38">
+        <v>0</v>
+      </c>
+      <c r="C52" s="44">
+        <v>0</v>
+      </c>
+      <c r="D52" s="67">
+        <v>0</v>
+      </c>
+      <c r="E52" s="64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="27">
+        <v>0</v>
+      </c>
+      <c r="B53" s="38">
+        <v>1</v>
+      </c>
+      <c r="C53" s="44">
+        <v>1</v>
+      </c>
+      <c r="D53" s="67">
+        <v>0</v>
+      </c>
+      <c r="E53" s="64" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="27">
+        <v>1</v>
+      </c>
+      <c r="B54" s="38">
+        <v>0</v>
+      </c>
+      <c r="C54" s="44">
+        <v>0</v>
+      </c>
+      <c r="D54" s="67">
+        <v>1</v>
+      </c>
+      <c r="E54" s="64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="30">
+        <v>1</v>
+      </c>
+      <c r="B55" s="32">
+        <v>1</v>
+      </c>
+      <c r="C55" s="45">
+        <v>0</v>
+      </c>
+      <c r="D55" s="68">
+        <v>1</v>
+      </c>
+      <c r="E55" s="65" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2104,9 +2360,9 @@
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B19:I19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
